--- a/Log_Correçoes.xlsx
+++ b/Log_Correçoes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz.perez\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz.perez\Desktop\ShopperPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FC596C5-190E-4825-B203-27E8E0245449}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68678068-A125-436D-9ACE-4E27B19AD60D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A1A25AF-FC24-407F-959A-392F57E16E26}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>VERBO</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>Perfil Admin não tem permissão pra mudar status(!?)</t>
+  </si>
+  <si>
+    <t>POST/PUT</t>
+  </si>
+  <si>
+    <t>Tratamento de unique key</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -464,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9B627E-93DB-4DCE-8E24-97C95546EF4E}">
-  <dimension ref="B3:F11"/>
+  <dimension ref="B3:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,6 +616,61 @@
         <v>24</v>
       </c>
     </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
